--- a/datos_dropcontrol/2025-08-02.xlsx
+++ b/datos_dropcontrol/2025-08-02.xlsx
@@ -1,40 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA2F28-36C6-4BEC-B838-3E658004B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>Humedad Relativa (%)</t>
+  </si>
+  <si>
+    <t>Radiación Solar (W/m²)</t>
+  </si>
+  <si>
+    <t>Velocidad de Viento Promedio (km/h)</t>
+  </si>
+  <si>
+    <t>Dirección de Viento Predominante</t>
+  </si>
+  <si>
+    <t>Precipitación (mm)</t>
+  </si>
+  <si>
+    <t>Hora de Ejecución</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>ONO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>14:46:02</t>
+  </si>
+  <si>
+    <t>15:04:31</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +111,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,105 +436,518 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sem</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura (ºC)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Humedad Relativa (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Radiación Solar (W/m²)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidad de Viento Promedio (km/h)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección de Viento Predominante</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Precipitación (mm)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Hora de Ejecución</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45871.61530367821</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>13.86</v>
+      </c>
+      <c r="E2">
+        <v>91.91</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>7.65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45870.041666666657</v>
+      </c>
+      <c r="B3">
+        <v>2025</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>14.01</v>
+      </c>
+      <c r="E3">
+        <v>91.3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5.91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45870.083333333343</v>
+      </c>
+      <c r="B4">
+        <v>2025</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>13.9</v>
+      </c>
+      <c r="E4">
+        <v>91.35</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5.57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45870.125</v>
+      </c>
+      <c r="B5">
+        <v>2025</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>13.76</v>
+      </c>
+      <c r="E5">
+        <v>91.72</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4.22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45870.166666666657</v>
+      </c>
+      <c r="B6">
+        <v>2025</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>13.94</v>
+      </c>
+      <c r="E6">
+        <v>91.67</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45870.208333333343</v>
+      </c>
+      <c r="B7">
+        <v>2025</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>14.04</v>
+      </c>
+      <c r="E7">
+        <v>90.55</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5.78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45870.25</v>
+      </c>
+      <c r="B8">
+        <v>2025</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>14.46</v>
+      </c>
+      <c r="E8">
+        <v>88.03</v>
+      </c>
+      <c r="F8">
+        <v>3.52</v>
+      </c>
+      <c r="G8">
+        <v>5.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45870.291666666657</v>
+      </c>
+      <c r="B9">
+        <v>2025</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>13.92</v>
+      </c>
+      <c r="E9">
+        <v>89.27</v>
+      </c>
+      <c r="F9">
+        <v>52.73</v>
+      </c>
+      <c r="G9">
+        <v>4.95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45870.333333333343</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>14.06</v>
+      </c>
+      <c r="E10">
+        <v>91.21</v>
+      </c>
+      <c r="F10">
+        <v>97.12</v>
+      </c>
+      <c r="G10">
+        <v>4.26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45870.375</v>
+      </c>
+      <c r="B11">
+        <v>2025</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>14.5</v>
+      </c>
+      <c r="E11">
+        <v>90.74</v>
+      </c>
+      <c r="F11">
+        <v>210.5</v>
+      </c>
+      <c r="G11">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45870.416666666657</v>
+      </c>
+      <c r="B12">
+        <v>2025</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="E12">
+        <v>86.04</v>
+      </c>
+      <c r="F12">
+        <v>505.37</v>
+      </c>
+      <c r="G12">
+        <v>8.73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45870.458333333343</v>
+      </c>
+      <c r="B13">
+        <v>2025</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E13">
+        <v>79.06</v>
+      </c>
+      <c r="F13">
+        <v>602.04999999999995</v>
+      </c>
+      <c r="G13">
+        <v>11.31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45870.5</v>
+      </c>
+      <c r="B14">
+        <v>2025</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>19.89</v>
+      </c>
+      <c r="E14">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="F14">
+        <v>615.23</v>
+      </c>
+      <c r="G14">
+        <v>12.53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45870.541666666657</v>
+      </c>
+      <c r="B15">
+        <v>2025</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>20.58</v>
+      </c>
+      <c r="E15">
+        <v>72.83</v>
+      </c>
+      <c r="F15">
+        <v>247.85</v>
+      </c>
+      <c r="G15">
+        <v>15.26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45871.615303680563</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
         <v>18.61</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E16">
         <v>77.52</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F16">
         <v>439.45</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G16">
         <v>16.05</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>14:46:02</t>
-        </is>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45871.628147546297</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>18.61</v>
+      </c>
+      <c r="E17">
+        <v>77.52</v>
+      </c>
+      <c r="F17">
+        <v>395.51</v>
+      </c>
+      <c r="G17">
+        <v>13.75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
